--- a/Excel_Files/Stats_Populations/1.5_cm/754_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/754_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002672951846001519</v>
+        <v>0.001975760713444294</v>
       </c>
       <c r="D2">
-        <v>0.0004001150127521999</v>
+        <v>0.002140859140627747</v>
       </c>
       <c r="E2">
-        <v>0.000308157049168331</v>
+        <v>0.001989685375323635</v>
       </c>
       <c r="F2">
-        <v>0.0003306175141367627</v>
+        <v>0.002024634080607765</v>
       </c>
       <c r="G2">
-        <v>0.0001616480418270737</v>
+        <v>0.001892407499362939</v>
       </c>
       <c r="H2">
-        <v>0.0004001150127521999</v>
+        <v>0.002140859140627747</v>
       </c>
       <c r="I2">
-        <v>0.0005107849578563785</v>
+        <v>0.002633602620747516</v>
       </c>
       <c r="J2">
-        <v>0.0005999752010136195</v>
+        <v>0.002389328165187665</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001058932372163474</v>
+        <v>0.001659586587451774</v>
       </c>
       <c r="D3">
-        <v>0.0003228175437710838</v>
+        <v>0.001923138006595353</v>
       </c>
       <c r="E3">
-        <v>0.0002052539925557343</v>
+        <v>0.001872916095838577</v>
       </c>
       <c r="F3">
-        <v>0.0001265676087382192</v>
+        <v>0.001707191744341874</v>
       </c>
       <c r="G3">
-        <v>0.0001142849625837988</v>
+        <v>0.001598377606036278</v>
       </c>
       <c r="H3">
-        <v>0.0002016023677808641</v>
+        <v>0.001857929732527702</v>
       </c>
       <c r="I3">
-        <v>0.0002100086234870124</v>
+        <v>0.00200766474596945</v>
       </c>
       <c r="J3">
-        <v>9.566157473831571E-05</v>
+        <v>0.001592371785424239</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.098351653314339E-05</v>
+        <v>0.00138368294510514</v>
       </c>
       <c r="D4">
-        <v>0.0001558458734193103</v>
+        <v>0.001711982338703541</v>
       </c>
       <c r="E4">
-        <v>0.0001279991380328288</v>
+        <v>0.001643646709914379</v>
       </c>
       <c r="F4">
-        <v>5.012245371931452E-05</v>
+        <v>0.001200838338303234</v>
       </c>
       <c r="G4">
-        <v>4.328009144181756E-05</v>
+        <v>0.001124558689787603</v>
       </c>
       <c r="H4">
-        <v>9.506195805590467E-05</v>
+        <v>0.001513874277540973</v>
       </c>
       <c r="I4">
-        <v>0.0001389157154963451</v>
+        <v>0.001792228410789267</v>
       </c>
       <c r="J4">
-        <v>3.87068857189568E-05</v>
+        <v>0.001078797162941387</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.27524651843594E-06</v>
+        <v>0.0003757992504356271</v>
       </c>
       <c r="D5">
-        <v>5.281748717753311E-06</v>
+        <v>0.0004206037114707565</v>
       </c>
       <c r="E5">
-        <v>4.404621344656114E-06</v>
+        <v>0.0003910222737871698</v>
       </c>
       <c r="F5">
-        <v>2.213780787579539E-06</v>
+        <v>0.0002759780410265999</v>
       </c>
       <c r="G5">
-        <v>1.538733732995766E-06</v>
+        <v>0.000232200891067228</v>
       </c>
       <c r="H5">
-        <v>2.795881239667703E-06</v>
+        <v>0.0003101528454484059</v>
       </c>
       <c r="I5">
-        <v>3.703089390390418E-06</v>
+        <v>0.0003495920634783848</v>
       </c>
       <c r="J5">
-        <v>3.467348491290589E-06</v>
+        <v>0.0003390708556771917</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.568820976870232E-06</v>
+        <v>0.0002989461084004319</v>
       </c>
       <c r="D6">
-        <v>2.465597819901073E-06</v>
+        <v>0.0002959928613645348</v>
       </c>
       <c r="E6">
-        <v>2.089352912521083E-06</v>
+        <v>0.0002721230874778929</v>
       </c>
       <c r="F6">
-        <v>9.728669640092452E-07</v>
+        <v>0.0001896085724073262</v>
       </c>
       <c r="G6">
-        <v>9.015885698786236E-07</v>
+        <v>0.000179127448090583</v>
       </c>
       <c r="H6">
-        <v>1.232982690663538E-06</v>
+        <v>0.0002105500375158193</v>
       </c>
       <c r="I6">
-        <v>2.510547643845136E-06</v>
+        <v>0.0002896068064965621</v>
       </c>
       <c r="J6">
-        <v>1.531194905628662E-06</v>
+        <v>0.0002235060242513876</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.263361660528464E-06</v>
+        <v>0.0002112574699947105</v>
       </c>
       <c r="D7">
-        <v>1.238483530993777E-06</v>
+        <v>0.0002124044579987462</v>
       </c>
       <c r="E7">
-        <v>6.320778820651951E-07</v>
+        <v>0.0001505719583155962</v>
       </c>
       <c r="F7">
-        <v>2.166506400103344E-07</v>
+        <v>8.980835531986146E-05</v>
       </c>
       <c r="G7">
-        <v>4.295880830018793E-07</v>
+        <v>0.0001236543373583868</v>
       </c>
       <c r="H7">
-        <v>2.166506400103344E-07</v>
+        <v>8.980835531986146E-05</v>
       </c>
       <c r="I7">
-        <v>1.380622600584794E-06</v>
+        <v>0.0002247589031774074</v>
       </c>
       <c r="J7">
-        <v>8.153415143348355E-07</v>
+        <v>0.0001708657063736184</v>
       </c>
     </row>
   </sheetData>
